--- a/01_Documentación/G3_MATRIZ_10_NIVELES.xlsx
+++ b/01_Documentación/G3_MATRIZ_10_NIVELES.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMUEL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A25CAF-38F8-4033-8969-58EB5569DC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFF8E7-28DC-47F6-BAAD-1907FC051E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05AC8D40-0673-44FF-B842-F2CFFFBC4894}"/>
   </bookViews>
   <sheets>
-    <sheet name="MP14niveles" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="10 Niveles" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MP14niveles!$C$3:$AY$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'10 Niveles'!$C$3:$AY$78</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +66,7 @@
   </si>
   <si>
     <t xml:space="preserve">PROCESO DE SEGUIMIENTO A GRADUADOS DE LA UNIVERSIDAD DE FUERZAS ARMADAS ESPE 
-MAPA DE PROCESOS DE 10 NIVELES PARA  LA ELABORACIÓN DE UN APLICATIVO MÓVIL PARA EL SEGUIMIENTO A GRADUADOS IASA </t>
+MAPA DE PROCESOS DE 14 NIVELES PARA  EL SEGUIMIENTO A GRADUADOS </t>
   </si>
 </sst>
 </file>
@@ -174,14 +173,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>78309</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137882</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>65689</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>110164</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>62539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -196,8 +195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2955516" y="3396089"/>
-          <a:ext cx="18866587" cy="4938420"/>
+          <a:off x="2926284" y="3481157"/>
+          <a:ext cx="18770680" cy="4858607"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -585,7 +584,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Analisis y tabulacion de la informacion</a:t>
+            <a:t>Analizar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y tabular</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>de la informacion</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1100" baseline="0">
@@ -679,7 +726,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Elaboracion de informe,</a:t>
+            <a:t>Elaborar el informe,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1100" baseline="0">
@@ -847,11 +894,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1200" baseline="0"/>
-            <a:t> Reunión y v</a:t>
+            <a:t> Realizar una reunión de v</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1200"/>
-            <a:t>inculación con</a:t>
+            <a:t>inculación con los</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1200" baseline="0"/>
@@ -883,13 +930,13 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>168889</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>44434</xdr:rowOff>
+      <xdr:rowOff>53959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>1380174</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>45537</xdr:rowOff>
+      <xdr:rowOff>55062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -904,8 +951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15749548" y="3594458"/>
-          <a:ext cx="1399544" cy="897573"/>
+          <a:off x="15799414" y="3625834"/>
+          <a:ext cx="1401785" cy="905978"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -938,7 +985,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1200" baseline="0"/>
-            <a:t> Presetacion de mejora academica </a:t>
+            <a:t> Elaborar un  informe de presetación de mejora academica </a:t>
           </a:r>
           <a:endParaRPr lang="es-EC" sz="1200"/>
         </a:p>
@@ -1923,8 +1970,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1939,8 +1986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476875" y="7315201"/>
-          <a:ext cx="1314450" cy="552450"/>
+          <a:off x="5848350" y="4676776"/>
+          <a:ext cx="1314450" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1976,6 +2023,85 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Grad.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66916</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>40722</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Diagrama de flujo: proceso 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2747175-981F-4C31-A16C-834F9B92B75C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886941" y="4693273"/>
+          <a:ext cx="1402556" cy="507378"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent6"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr lang="es-EC" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -1997,24 +2123,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> de Seg. a Grad.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Graduados</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
+            <a:t> de Seg. a Grad</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2022,23 +2135,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66916</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>189379</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>35547</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>40722</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6627</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1427629</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Diagrama de flujo: proceso 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2747175-981F-4C31-A16C-834F9B92B75C}"/>
+        <xdr:cNvPr id="52" name="Diagrama de flujo: proceso 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DB09C6-6535-4679-8436-04EE612F3228}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,8 +2159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7892325" y="4793077"/>
-          <a:ext cx="1398414" cy="527672"/>
+          <a:off x="15819904" y="4743450"/>
+          <a:ext cx="1428750" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2109,128 +2222,6 @@
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Diagrama de flujo: proceso 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DB09C6-6535-4679-8436-04EE612F3228}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15786847" y="4625789"/>
-          <a:ext cx="1425388" cy="699247"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent6"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dir de Dep.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                Cood.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> de Seg. a Grad</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>U.S.G</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:endParaRPr lang="es-EC" sz="1100">
@@ -2800,13 +2791,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>50671</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>129956</xdr:rowOff>
+      <xdr:rowOff>130796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>168889</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>134633</xdr:rowOff>
+      <xdr:rowOff>144998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2824,8 +2815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15254812" y="4038568"/>
-          <a:ext cx="494736" cy="4677"/>
+          <a:off x="15300196" y="4064621"/>
+          <a:ext cx="499218" cy="14202"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2856,13 +2847,13 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>1380174</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>129956</xdr:rowOff>
+      <xdr:rowOff>139481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>15598</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>134633</xdr:rowOff>
+      <xdr:rowOff>144158</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2880,8 +2871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17149092" y="4038568"/>
-          <a:ext cx="625588" cy="4677"/>
+          <a:off x="17201199" y="4073306"/>
+          <a:ext cx="635674" cy="4677"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3507,7 +3498,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>En</a:t>
+            <a:t>Elaboracion</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1100" baseline="0">
@@ -3518,7 +3509,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> reunion se presenta, a la Unidad de Seguimiento a Graduados la mejora para la oferta academica de posgrados </a:t>
+            <a:t> de informe de la presentacion de las mejoras academicas a los egresados para el director de despartamento. </a:t>
           </a:r>
           <a:endParaRPr lang="es-EC" sz="1100">
             <a:solidFill>
@@ -3947,13 +3938,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>20602</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5700</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>46383</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>139147</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3968,8 +3959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13849245" y="4763230"/>
-          <a:ext cx="1450390" cy="690039"/>
+          <a:off x="13841377" y="4781549"/>
+          <a:ext cx="1454531" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4031,34 +4022,6 @@
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Graduados</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="es-EC" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4211,8 +4174,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15266670" y="4097076"/>
-          <a:ext cx="552450" cy="2367915"/>
+          <a:off x="15283815" y="4060881"/>
+          <a:ext cx="552450" cy="2343150"/>
           <a:chOff x="10126135" y="5820833"/>
           <a:chExt cx="533399" cy="2741084"/>
         </a:xfrm>
@@ -4424,6 +4387,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="es-EC" sz="1200" b="1"/>
+            <a:t>Grad. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1200" b="0"/>
+            <a:t>Graduados </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="es-EC" sz="1200" b="1" baseline="0"/>
             <a:t>USG. </a:t>
           </a:r>
@@ -5046,7 +5020,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>5. Aprobacion</a:t>
+            <a:t>5. Aprobar</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-EC" sz="1100" baseline="0">
@@ -5058,7 +5032,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> de la mejora academica </a:t>
+            <a:t> la mejor  academica </a:t>
           </a:r>
           <a:endParaRPr lang="es-EC" sz="1100"/>
         </a:p>
@@ -5092,8 +5066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9263409" y="4099001"/>
-          <a:ext cx="542597" cy="2367915"/>
+          <a:off x="9269124" y="4062806"/>
+          <a:ext cx="542597" cy="2343150"/>
           <a:chOff x="10126135" y="5820833"/>
           <a:chExt cx="533399" cy="2741084"/>
         </a:xfrm>
@@ -5821,13 +5795,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>150328</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95960</xdr:rowOff>
+      <xdr:rowOff>95961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1356585</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5842,8 +5816,148 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11750657" y="4721748"/>
-          <a:ext cx="1394516" cy="531569"/>
+          <a:off x="11780353" y="4753686"/>
+          <a:ext cx="1396757" cy="399340"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent6"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dir. de Dep.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-EC">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>740662</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>668406</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>143996</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Conector: angular 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B2F1E2-59DB-600A-937E-8DAC6C715E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="8463206" y="596701"/>
+          <a:ext cx="99174" cy="7888403"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36748"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78609</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47737</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Diagrama de flujo: proceso 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87735CD0-F957-49C7-B2E0-3897E75D0E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893169" y="4779570"/>
+          <a:ext cx="1394068" cy="470610"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5903,184 +6017,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dir. de Dep.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-EC">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>740662</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>668406</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>143996</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Conector: angular 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B2F1E2-59DB-600A-937E-8DAC6C715E5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="8463206" y="596701"/>
-          <a:ext cx="99174" cy="7888403"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -36748"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>78609</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47737</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71716</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Diagrama de flujo: proceso 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87735CD0-F957-49C7-B2E0-3897E75D0E24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877033" y="4703818"/>
-          <a:ext cx="1394516" cy="531569"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent6"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Cood.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> de Seg. a Grad</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dir. de Dep.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="es-EC">
             <a:effectLst/>
           </a:endParaRPr>
@@ -6227,76 +6163,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>126008</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>140692</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>28576</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Imagen 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD69FE4-5670-49C8-8C85-AC16D3F5219C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MP14niveles!$C$1:$AY$76" spid="_x0000_s2095"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="888008" y="0"/>
-              <a:ext cx="12206684" cy="7458076"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -6602,8 +6468,8 @@
   </sheetPr>
   <dimension ref="C3:AY77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AY67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6747,22 +6613,6 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" scale="33" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4887F-28E6-4371-BC14-2B523395AFFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
